--- a/result.xlsx
+++ b/result.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -49,6 +49,12 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="30"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
@@ -173,8 +179,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -188,15 +198,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -562,19 +581,20 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
-    <col width="22.296875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="33.69921875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="22.296875" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="33.69921875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="4">
+    <row r="1" ht="19.5" customHeight="1" s="6">
+      <c r="B1" s="7" t="n"/>
       <c r="C1" t="inlineStr">
         <is>
           <t>damaged</t>
@@ -591,36 +611,36 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="25.5" customHeight="1" s="4">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="2" t="inlineStr">
+    <row r="2" ht="25.5" customHeight="1" s="6">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>images.png</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>kid.png</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>som.png</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="25.5" customHeight="1" s="4">
-      <c r="A3" s="10" t="inlineStr">
+    <row r="3" ht="25.5" customHeight="1" s="6">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>PSNR</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
@@ -635,9 +655,9 @@
         <v>19.78924932734241</v>
       </c>
     </row>
-    <row r="4" ht="25.5" customHeight="1" s="4">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="3" t="inlineStr">
+    <row r="4" ht="25.5" customHeight="1" s="6">
+      <c r="A4" s="13" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
@@ -652,9 +672,9 @@
         <v>21.28870856671938</v>
       </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1" s="4">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+    <row r="5" ht="25.5" customHeight="1" s="6">
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
@@ -669,9 +689,9 @@
         <v>20.79570747694748</v>
       </c>
     </row>
-    <row r="6" ht="26.25" customHeight="1" s="4">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+    <row r="6" ht="26.25" customHeight="1" s="6">
+      <c r="A6" s="14" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
@@ -686,14 +706,16 @@
         <v>20.53669243531387</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" s="4"/>
-    <row r="8" ht="25.5" customHeight="1" s="4">
-      <c r="A8" s="10" t="inlineStr">
+    <row r="7" ht="19.5" customHeight="1" s="6">
+      <c r="B7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="25.5" customHeight="1" s="6">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>SSIM</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
@@ -708,9 +730,9 @@
         <v>0.6485202433636156</v>
       </c>
     </row>
-    <row r="9" ht="25.5" customHeight="1" s="4">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
+    <row r="9" ht="25.5" customHeight="1" s="6">
+      <c r="A9" s="13" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
@@ -725,9 +747,9 @@
         <v>0.6832550117653651</v>
       </c>
     </row>
-    <row r="10" ht="25.5" customHeight="1" s="4">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="25.5" customHeight="1" s="6">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
@@ -742,9 +764,9 @@
         <v>0.6718501949682452</v>
       </c>
     </row>
-    <row r="11" ht="26.25" customHeight="1" s="4">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+    <row r="11" ht="26.25" customHeight="1" s="6">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
@@ -759,9 +781,14 @@
         <v>0.6499316388432322</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" s="4"/>
-    <row r="13" ht="19.5" customHeight="1" s="4"/>
-    <row r="14" ht="19.5" customHeight="1" s="4">
+    <row r="12" ht="19.5" customHeight="1" s="6">
+      <c r="B12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" s="6">
+      <c r="B13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" s="6">
+      <c r="B14" s="7" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>high_res</t>
@@ -773,148 +800,155 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="25.5" customHeight="1" s="4">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="2" t="inlineStr">
+    <row r="15" ht="25.5" customHeight="1" s="6">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>elelphant.png</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>yoshi.png</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>elelphant.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1" s="4">
-      <c r="A16" s="10" t="inlineStr">
+    </row>
+    <row r="16" ht="25.5" customHeight="1" s="6">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>PSNR</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>21.05770134573583</v>
+      </c>
+      <c r="D16" t="n">
         <v>22.18728140903316</v>
       </c>
-      <c r="D16" t="n">
-        <v>21.05770134573583</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1" s="4">
-      <c r="A17" s="11" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
+    </row>
+    <row r="17" ht="25.5" customHeight="1" s="6">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>22.40413093045892</v>
+      </c>
+      <c r="D17" t="n">
         <v>24.43339056932131</v>
       </c>
-      <c r="D17" t="n">
-        <v>22.40413093045892</v>
-      </c>
-    </row>
-    <row r="18" ht="25.5" customHeight="1" s="4">
-      <c r="A18" s="11" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
+    </row>
+    <row r="18" ht="25.5" customHeight="1" s="6">
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>21.86561441741668</v>
+      </c>
+      <c r="D18" t="n">
         <v>24.54475028645806</v>
       </c>
-      <c r="D18" t="n">
-        <v>21.86561441741668</v>
-      </c>
-    </row>
-    <row r="19" ht="26.25" customHeight="1" s="4">
-      <c r="A19" s="12" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
+    </row>
+    <row r="19" ht="26.25" customHeight="1" s="6">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>21.65321509345508</v>
+      </c>
+      <c r="D19" t="n">
         <v>24.36872805862952</v>
       </c>
-      <c r="D19" t="n">
-        <v>21.65321509345508</v>
-      </c>
-    </row>
-    <row r="20" ht="19.5" customHeight="1" s="4"/>
-    <row r="21" ht="25.5" customHeight="1" s="4">
-      <c r="A21" s="10" t="inlineStr">
+    </row>
+    <row r="20" ht="19.5" customHeight="1" s="6">
+      <c r="B20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="25.5" customHeight="1" s="6">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>SSIM</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.5529713432277176</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.8684816602831141</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.5529713432277176</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1" s="4">
-      <c r="A22" s="11" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
+    </row>
+    <row r="22" ht="25.5" customHeight="1" s="6">
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.59029945537462</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.8887026629287799</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.59029945537462</v>
-      </c>
-    </row>
-    <row r="23" ht="25.5" customHeight="1" s="4">
-      <c r="A23" s="11" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
+    </row>
+    <row r="23" ht="25.5" customHeight="1" s="6">
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0.5791988690138677</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.884343691640277</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.5791988690138677</v>
-      </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1" s="4">
-      <c r="A24" s="12" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="6">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.5649646185147499</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.8531538234990826</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.5649646185147499</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1" s="4"/>
-    <row r="26" ht="19.5" customHeight="1" s="4"/>
-    <row r="27" ht="19.5" customHeight="1" s="4">
+    </row>
+    <row r="25" ht="19.5" customHeight="1" s="6">
+      <c r="B25" s="7" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1" s="6">
+      <c r="B26" s="7" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customHeight="1" s="6">
+      <c r="B27" s="7" t="n"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>low_res</t>
@@ -926,143 +960,145 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1" s="4">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="2" t="inlineStr">
+    <row r="28" ht="19.5" customHeight="1" s="6">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C28" s="8" t="inlineStr">
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>bear.png</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
         <is>
           <t>man.png</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>bear.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="19.5" customHeight="1" s="4">
-      <c r="A29" s="10" t="inlineStr">
+    </row>
+    <row r="29" ht="19.5" customHeight="1" s="6">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>PSNR</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
       </c>
       <c r="C29" t="n">
+        <v>32.08783984901045</v>
+      </c>
+      <c r="D29" t="n">
         <v>34.6399640008014</v>
       </c>
-      <c r="D29" t="n">
-        <v>32.08783984901045</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1" s="4">
-      <c r="A30" s="11" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
+    </row>
+    <row r="30" ht="19.5" customHeight="1" s="6">
+      <c r="A30" s="13" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
       <c r="C30" t="n">
+        <v>39.83857749239947</v>
+      </c>
+      <c r="D30" t="n">
         <v>42.09065224286996</v>
       </c>
-      <c r="D30" t="n">
-        <v>39.83857749239947</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1" s="4">
-      <c r="A31" s="11" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
+    </row>
+    <row r="31" ht="19.5" customHeight="1" s="6">
+      <c r="A31" s="13" t="n"/>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>42.84569993505249</v>
+      </c>
+      <c r="D31" t="n">
         <v>45.84052077347912</v>
       </c>
-      <c r="D31" t="n">
-        <v>42.84569993505249</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1" s="4">
-      <c r="A32" s="12" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
+    </row>
+    <row r="32" ht="19.5" customHeight="1" s="6">
+      <c r="A32" s="14" t="n"/>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
       <c r="C32" t="n">
+        <v>42.96417383600573</v>
+      </c>
+      <c r="D32" t="n">
         <v>46.88580966385058</v>
       </c>
-      <c r="D32" t="n">
-        <v>42.96417383600573</v>
-      </c>
-    </row>
-    <row r="33" ht="19.5" customHeight="1" s="4"/>
-    <row r="34" ht="19.5" customHeight="1" s="4">
-      <c r="A34" s="10" t="inlineStr">
+    </row>
+    <row r="33" ht="19.5" customHeight="1" s="6">
+      <c r="B33" s="7" t="n"/>
+    </row>
+    <row r="34" ht="19.5" customHeight="1" s="6">
+      <c r="A34" s="8" t="inlineStr">
         <is>
           <t>SSIM</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
       </c>
       <c r="C34" t="n">
+        <v>0.8776004899097268</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.9234198623947227</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.8776004899097268</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" customHeight="1" s="4">
-      <c r="A35" s="11" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
+    </row>
+    <row r="35" ht="19.5" customHeight="1" s="6">
+      <c r="A35" s="13" t="n"/>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
       <c r="C35" t="n">
+        <v>0.9699343460826042</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.9818988094121996</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.9699343460826042</v>
-      </c>
-    </row>
-    <row r="36" ht="19.5" customHeight="1" s="4">
-      <c r="A36" s="11" t="n"/>
-      <c r="B36" s="3" t="inlineStr">
+    </row>
+    <row r="36" ht="19.5" customHeight="1" s="6">
+      <c r="A36" s="13" t="n"/>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
       <c r="C36" t="n">
+        <v>0.9801136147919344</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.9885231471152004</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.9801136147919344</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1" s="4">
-      <c r="A37" s="12" t="n"/>
-      <c r="B37" s="3" t="inlineStr">
+    </row>
+    <row r="37" ht="19.5" customHeight="1" s="6">
+      <c r="A37" s="14" t="n"/>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
       <c r="C37" t="n">
+        <v>0.9805386676558192</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.9899236687075338</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9805386676558192</v>
       </c>
     </row>
     <row r="40">
@@ -1077,31 +1113,31 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="21" customHeight="1" s="4">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="2" t="inlineStr">
+    <row r="41" ht="21" customHeight="1" s="6">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
+      <c r="C41" s="17" t="inlineStr">
         <is>
           <t>pikachu.png</t>
         </is>
       </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="D41" s="17" t="inlineStr">
         <is>
           <t>tree.png</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="21" customHeight="1" s="4">
-      <c r="A42" s="10" t="inlineStr">
+    <row r="42" ht="21" customHeight="1" s="6">
+      <c r="A42" s="8" t="inlineStr">
         <is>
           <t>PSNR</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
@@ -1113,9 +1149,9 @@
         <v>21.46219089626999</v>
       </c>
     </row>
-    <row r="43" ht="21" customHeight="1" s="4">
-      <c r="A43" s="11" t="n"/>
-      <c r="B43" s="3" t="inlineStr">
+    <row r="43" ht="21" customHeight="1" s="6">
+      <c r="A43" s="13" t="n"/>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
@@ -1127,9 +1163,9 @@
         <v>23.84615234192509</v>
       </c>
     </row>
-    <row r="44" ht="21" customHeight="1" s="4">
-      <c r="A44" s="11" t="n"/>
-      <c r="B44" s="3" t="inlineStr">
+    <row r="44" ht="21" customHeight="1" s="6">
+      <c r="A44" s="13" t="n"/>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
@@ -1141,9 +1177,9 @@
         <v>24.00816845680683</v>
       </c>
     </row>
-    <row r="45" ht="21" customHeight="1" s="4">
-      <c r="A45" s="12" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
+    <row r="45" ht="21" customHeight="1" s="6">
+      <c r="A45" s="14" t="n"/>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
@@ -1155,13 +1191,13 @@
         <v>24.01960888119929</v>
       </c>
     </row>
-    <row r="47" ht="21" customHeight="1" s="4">
-      <c r="A47" s="10" t="inlineStr">
+    <row r="47" ht="21" customHeight="1" s="6">
+      <c r="A47" s="8" t="inlineStr">
         <is>
           <t>SSIM</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>Nearest Neighbor</t>
         </is>
@@ -1173,9 +1209,9 @@
         <v>0.7846553035933322</v>
       </c>
     </row>
-    <row r="48" ht="21" customHeight="1" s="4">
-      <c r="A48" s="11" t="n"/>
-      <c r="B48" s="3" t="inlineStr">
+    <row r="48" ht="21" customHeight="1" s="6">
+      <c r="A48" s="13" t="n"/>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
@@ -1187,9 +1223,9 @@
         <v>0.8383665889268124</v>
       </c>
     </row>
-    <row r="49" ht="21" customHeight="1" s="4">
-      <c r="A49" s="11" t="n"/>
-      <c r="B49" s="3" t="inlineStr">
+    <row r="49" ht="21" customHeight="1" s="6">
+      <c r="A49" s="13" t="n"/>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
@@ -1201,9 +1237,9 @@
         <v>0.8351796680615702</v>
       </c>
     </row>
-    <row r="50" ht="21" customHeight="1" s="4">
-      <c r="A50" s="12" t="n"/>
-      <c r="B50" s="3" t="inlineStr">
+    <row r="50" ht="21" customHeight="1" s="6">
+      <c r="A50" s="14" t="n"/>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -1112,6 +1112,11 @@
           <t>pixel</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>pixel</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="21" customHeight="1" s="6">
       <c r="A41" s="3" t="n"/>
@@ -1130,6 +1135,11 @@
           <t>tree.png</t>
         </is>
       </c>
+      <c r="E41" s="17" t="inlineStr">
+        <is>
+          <t>pizza.png</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="21" customHeight="1" s="6">
       <c r="A42" s="8" t="inlineStr">
@@ -1147,6 +1157,9 @@
       </c>
       <c r="D42" t="n">
         <v>21.46219089626999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20.51419396655697</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" s="6">
@@ -1162,6 +1175,9 @@
       <c r="D43" t="n">
         <v>23.84615234192509</v>
       </c>
+      <c r="E43" t="n">
+        <v>22.1760951270317</v>
+      </c>
     </row>
     <row r="44" ht="21" customHeight="1" s="6">
       <c r="A44" s="13" t="n"/>
@@ -1176,6 +1192,9 @@
       <c r="D44" t="n">
         <v>24.00816845680683</v>
       </c>
+      <c r="E44" t="n">
+        <v>22.54059602306507</v>
+      </c>
     </row>
     <row r="45" ht="21" customHeight="1" s="6">
       <c r="A45" s="14" t="n"/>
@@ -1190,6 +1209,9 @@
       <c r="D45" t="n">
         <v>24.01960888119929</v>
       </c>
+      <c r="E45" t="n">
+        <v>22.7211512563539</v>
+      </c>
     </row>
     <row r="47" ht="21" customHeight="1" s="6">
       <c r="A47" s="8" t="inlineStr">
@@ -1207,6 +1229,9 @@
       </c>
       <c r="D47" t="n">
         <v>0.7846553035933322</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7654451345869071</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" s="6">
@@ -1222,6 +1247,9 @@
       <c r="D48" t="n">
         <v>0.8383665889268124</v>
       </c>
+      <c r="E48" t="n">
+        <v>0.807589534531776</v>
+      </c>
     </row>
     <row r="49" ht="21" customHeight="1" s="6">
       <c r="A49" s="13" t="n"/>
@@ -1236,6 +1264,9 @@
       <c r="D49" t="n">
         <v>0.8351796680615702</v>
       </c>
+      <c r="E49" t="n">
+        <v>0.8158453723898207</v>
+      </c>
     </row>
     <row r="50" ht="21" customHeight="1" s="6">
       <c r="A50" s="14" t="n"/>
@@ -1249,6 +1280,9 @@
       </c>
       <c r="D50" t="n">
         <v>0.8215254684256612</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.808298921664778</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -597,17 +597,17 @@
       <c r="B1" s="7" t="n"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>damaged</t>
+          <t>damaged / 15</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>damaged</t>
+          <t>damaged / 15</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>damaged</t>
+          <t>damaged / 15</t>
         </is>
       </c>
     </row>
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25.31290053561134</v>
+        <v>23.92636339514132</v>
       </c>
       <c r="D3" t="n">
-        <v>26.39883014606153</v>
+        <v>24.06194911677096</v>
       </c>
       <c r="E3" t="n">
-        <v>19.78924932734241</v>
+        <v>18.32067128099025</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" s="6">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26.45426187476152</v>
+        <v>25.2305021408594</v>
       </c>
       <c r="D4" t="n">
-        <v>28.33600700517183</v>
+        <v>26.23843845769269</v>
       </c>
       <c r="E4" t="n">
-        <v>21.28870856671938</v>
+        <v>19.72805234229667</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" s="6">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26.01441096218326</v>
+        <v>24.77992727174584</v>
       </c>
       <c r="D5" t="n">
-        <v>27.97149935597861</v>
+        <v>25.93342514760181</v>
       </c>
       <c r="E5" t="n">
-        <v>20.79570747694748</v>
+        <v>19.28258915007475</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1" s="6">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.78194171353216</v>
+        <v>24.57886448281363</v>
       </c>
       <c r="D6" t="n">
-        <v>27.6918036507321</v>
+        <v>25.71964303322285</v>
       </c>
       <c r="E6" t="n">
-        <v>20.53669243531387</v>
+        <v>19.06560490215001</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1" s="6">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7214088222565884</v>
+        <v>0.6075442736222051</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8635419178150787</v>
+        <v>0.7828164420241289</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6485202433636156</v>
+        <v>0.5437072685746848</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" s="6">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7470006426671084</v>
+        <v>0.6681027314701836</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8923678227793882</v>
+        <v>0.8403135876897583</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6832550117653651</v>
+        <v>0.5947867128619063</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" s="6">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7421591185390808</v>
+        <v>0.6567860866040037</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8895922171670912</v>
+        <v>0.8332756753608379</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6718501949682452</v>
+        <v>0.5793715295755107</v>
       </c>
     </row>
     <row r="11" ht="26.25" customHeight="1" s="6">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7290977935253421</v>
+        <v>0.643750231712633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8787972575987268</v>
+        <v>0.8210952913144416</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6499316388432322</v>
+        <v>0.5571797105868965</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1" s="6">
@@ -791,12 +791,22 @@
       <c r="B14" s="7" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>high_res</t>
+          <t>high_res / 15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>high_res</t>
+          <t>high_res / 15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>high_res / 15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>high_res / 15</t>
         </is>
       </c>
     </row>
@@ -809,10 +819,20 @@
       </c>
       <c r="C15" s="15" t="inlineStr">
         <is>
+          <t>bird.png</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
           <t>elelphant.png</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>water.png</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
         <is>
           <t>yoshi.png</t>
         </is>
@@ -830,10 +850,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.05770134573583</v>
+        <v>29.79702444375747</v>
       </c>
       <c r="D16" t="n">
-        <v>22.18728140903316</v>
+        <v>20.33668350233375</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22.64643209512656</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19.51690542402421</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" s="6">
@@ -844,10 +870,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.40413093045892</v>
+        <v>31.87549340974631</v>
       </c>
       <c r="D17" t="n">
-        <v>24.43339056932131</v>
+        <v>21.58626816235147</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23.86744155311609</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21.76058903298207</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" s="6">
@@ -858,10 +890,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.86561441741668</v>
+        <v>31.8340557684408</v>
       </c>
       <c r="D18" t="n">
-        <v>24.54475028645806</v>
+        <v>21.20893333404922</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23.45145508091065</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.93521364411928</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1" s="6">
@@ -872,10 +910,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.65321509345508</v>
+        <v>31.65392985355637</v>
       </c>
       <c r="D19" t="n">
-        <v>24.36872805862952</v>
+        <v>21.05384609543152</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.21451170423998</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21.85740011982916</v>
       </c>
     </row>
     <row r="20" ht="19.5" customHeight="1" s="6">
@@ -893,10 +937,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5529713432277176</v>
+        <v>0.9297294479068317</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8684816602831141</v>
+        <v>0.468237542278865</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5798681931620625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7834676151154504</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" s="6">
@@ -907,10 +957,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.59029945537462</v>
+        <v>0.9559037338313137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8887026629287799</v>
+        <v>0.5192287376066872</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6342269231159152</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8181389371542295</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" s="6">
@@ -921,10 +977,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5791988690138677</v>
+        <v>0.9571114066253193</v>
       </c>
       <c r="D23" t="n">
-        <v>0.884343691640277</v>
+        <v>0.507529922948876</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6266431131173542</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8079883687904585</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="6">
@@ -935,10 +997,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5649646185147499</v>
+        <v>0.9544814156069911</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8531538234990826</v>
+        <v>0.4963430525203361</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6155594439617312</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7661920629065585</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" s="6">
@@ -951,12 +1019,12 @@
       <c r="B27" s="7" t="n"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>low_res</t>
+          <t>low_res / 15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>low_res</t>
+          <t>low_res / 15</t>
         </is>
       </c>
     </row>
@@ -990,10 +1058,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32.08783984901045</v>
+        <v>28.77891269925218</v>
       </c>
       <c r="D29" t="n">
-        <v>34.6399640008014</v>
+        <v>30.20098261151398</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="6">
@@ -1004,10 +1072,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.83857749239947</v>
+        <v>33.0239893538624</v>
       </c>
       <c r="D30" t="n">
-        <v>42.09065224286996</v>
+        <v>35.19581371289096</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="6">
@@ -1018,10 +1086,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>42.84569993505249</v>
+        <v>34.57211696152407</v>
       </c>
       <c r="D31" t="n">
-        <v>45.84052077347912</v>
+        <v>37.2531103324491</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="6">
@@ -1032,10 +1100,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>42.96417383600573</v>
+        <v>34.72650061785436</v>
       </c>
       <c r="D32" t="n">
-        <v>46.88580966385058</v>
+        <v>37.40432538930059</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="6">
@@ -1053,10 +1121,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8776004899097268</v>
+        <v>0.7689866038485912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9234198623947227</v>
+        <v>0.8202449007268093</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="6">
@@ -1067,10 +1135,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9699343460826042</v>
+        <v>0.8967017525627163</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9818988094121996</v>
+        <v>0.9354588772766165</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="6">
@@ -1081,10 +1149,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9801136147919344</v>
+        <v>0.9117489353051514</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9885231471152004</v>
+        <v>0.9450043820574425</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="6">
@@ -1095,26 +1163,56 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9805386676558192</v>
+        <v>0.9121123134507707</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9899236687075338</v>
+        <v>0.945070769218908</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>pixel</t>
+          <t>pixel / 15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pixel</t>
+          <t>pixel / 15</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pixel</t>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1225,47 @@
       </c>
       <c r="C41" s="17" t="inlineStr">
         <is>
+          <t>axolotl.png</t>
+        </is>
+      </c>
+      <c r="D41" s="17" t="inlineStr">
+        <is>
+          <t>breakfast.png</t>
+        </is>
+      </c>
+      <c r="E41" s="17" t="inlineStr">
+        <is>
+          <t>cliff.png</t>
+        </is>
+      </c>
+      <c r="F41" s="17" t="inlineStr">
+        <is>
+          <t>gun.png</t>
+        </is>
+      </c>
+      <c r="G41" s="17" t="inlineStr">
+        <is>
+          <t>knight.png</t>
+        </is>
+      </c>
+      <c r="H41" s="17" t="inlineStr">
+        <is>
           <t>pikachu.png</t>
         </is>
       </c>
-      <c r="D41" s="17" t="inlineStr">
+      <c r="I41" s="17" t="inlineStr">
+        <is>
+          <t>pizza.png</t>
+        </is>
+      </c>
+      <c r="J41" s="17" t="inlineStr">
         <is>
           <t>tree.png</t>
         </is>
       </c>
-      <c r="E41" s="17" t="inlineStr">
-        <is>
-          <t>pizza.png</t>
+      <c r="K41" s="17" t="inlineStr">
+        <is>
+          <t>wizzard.png</t>
         </is>
       </c>
     </row>
@@ -1153,13 +1281,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15.75519851213552</v>
+        <v>22.57125106555887</v>
       </c>
       <c r="D42" t="n">
-        <v>21.46219089626999</v>
+        <v>24.92943639268828</v>
       </c>
       <c r="E42" t="n">
-        <v>20.51419396655697</v>
+        <v>32.42433408242604</v>
+      </c>
+      <c r="F42" t="n">
+        <v>24.4538847987094</v>
+      </c>
+      <c r="G42" t="n">
+        <v>22.97591850088856</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13.04423328477438</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17.77389078245491</v>
+      </c>
+      <c r="J42" t="n">
+        <v>18.97185344271182</v>
+      </c>
+      <c r="K42" t="n">
+        <v>21.19825391313464</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" s="6">
@@ -1170,13 +1316,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.09209479544197</v>
+        <v>24.48134435777748</v>
       </c>
       <c r="D43" t="n">
-        <v>23.84615234192509</v>
+        <v>26.70519867613292</v>
       </c>
       <c r="E43" t="n">
-        <v>22.1760951270317</v>
+        <v>32.54599121839482</v>
+      </c>
+      <c r="F43" t="n">
+        <v>26.37345053767995</v>
+      </c>
+      <c r="G43" t="n">
+        <v>24.80422631522724</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14.66275042398977</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19.38367542722527</v>
+      </c>
+      <c r="J43" t="n">
+        <v>20.95634460844059</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.97404183347038</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" s="6">
@@ -1187,13 +1351,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.73725412947504</v>
+        <v>24.35886435221493</v>
       </c>
       <c r="D44" t="n">
-        <v>24.00816845680683</v>
+        <v>26.46840355509633</v>
       </c>
       <c r="E44" t="n">
-        <v>22.54059602306507</v>
+        <v>33.18578990416478</v>
+      </c>
+      <c r="F44" t="n">
+        <v>26.19783391037748</v>
+      </c>
+      <c r="G44" t="n">
+        <v>24.68067565826239</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14.50155845349233</v>
+      </c>
+      <c r="I44" t="n">
+        <v>19.33231944150946</v>
+      </c>
+      <c r="J44" t="n">
+        <v>20.93753339155314</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22.81324578294602</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" s="6">
@@ -1204,13 +1386,31 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.82577141210082</v>
+        <v>24.20227919536475</v>
       </c>
       <c r="D45" t="n">
-        <v>24.01960888119929</v>
+        <v>26.31560180921333</v>
       </c>
       <c r="E45" t="n">
-        <v>22.7211512563539</v>
+        <v>33.23097112402589</v>
+      </c>
+      <c r="F45" t="n">
+        <v>25.97642628546719</v>
+      </c>
+      <c r="G45" t="n">
+        <v>24.64149867387435</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14.30974623074501</v>
+      </c>
+      <c r="I45" t="n">
+        <v>19.19033705756922</v>
+      </c>
+      <c r="J45" t="n">
+        <v>20.7790538678784</v>
+      </c>
+      <c r="K45" t="n">
+        <v>22.79300612125717</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" s="6">
@@ -1225,13 +1425,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.812114324738777</v>
+        <v>0.8972020565176916</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7846553035933322</v>
+        <v>0.8582853080027615</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7654451345869071</v>
+        <v>0.9069548030564748</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8194310860942272</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8824249502406394</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.6889045099324446</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6489755502869424</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6821725008323676</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8383062632613445</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" s="6">
@@ -1242,13 +1460,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8241630933727767</v>
+        <v>0.8925856623537753</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8383665889268124</v>
+        <v>0.8758109260385373</v>
       </c>
       <c r="E48" t="n">
-        <v>0.807589534531776</v>
+        <v>0.9074028354713159</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.844014377093217</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8945322493383068</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.6770613859104637</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7026394593509345</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.7290468172091509</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8378658999669598</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" s="6">
@@ -1259,13 +1495,31 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8385209099846441</v>
+        <v>0.8689677322291401</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8351796680615702</v>
+        <v>0.8626969097186971</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8158453723898207</v>
+        <v>0.9100348812649616</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8349228626116442</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8847217611692392</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.6813506350681325</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6973599629106072</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.7171844826168665</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8164198797168298</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" s="6">
@@ -1276,13 +1530,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7780639591930097</v>
+        <v>0.8522033478410863</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8215254684256612</v>
+        <v>0.8461967591416126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.808298921664778</v>
+        <v>0.9085968789959953</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8208673806897647</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8753236324658685</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6057841822753253</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.668390136179554</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.695487805303713</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.797295842732928</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -79,6 +79,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="3"/>
       </patternFill>
     </fill>
     <fill>
@@ -179,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -211,11 +221,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -610,6 +622,16 @@
           <t>damaged / 15</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>damaged / 15</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>damaged / 15</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" s="6">
       <c r="A2" s="3" t="n"/>
@@ -620,15 +642,25 @@
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
+          <t>family.png</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
           <t>images.png</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>kid.png</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>marry.png</t>
+        </is>
+      </c>
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>som.png</t>
         </is>
@@ -645,64 +677,88 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="13" t="n">
+        <v>18.72702272791578</v>
+      </c>
+      <c r="D3" s="13" t="n">
         <v>23.92636339514132</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" s="13" t="n">
         <v>24.06194911677096</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" s="13" t="n">
+        <v>17.68388058051656</v>
+      </c>
+      <c r="G3" s="13" t="n">
         <v>18.32067128099025</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" s="6">
-      <c r="A4" s="13" t="n"/>
+      <c r="A4" s="14" t="n"/>
       <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="15" t="n">
+        <v>20.55932848375159</v>
+      </c>
+      <c r="D4" s="15" t="n">
         <v>25.2305021408594</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" s="15" t="n">
         <v>26.23843845769269</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" s="15" t="n">
+        <v>19.33241593667804</v>
+      </c>
+      <c r="G4" s="15" t="n">
         <v>19.72805234229667</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" s="6">
-      <c r="A5" s="13" t="n"/>
+      <c r="A5" s="14" t="n"/>
       <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>20.30509685497746</v>
+      </c>
+      <c r="D5" t="n">
         <v>24.77992727174584</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>25.93342514760181</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>19.06163608668615</v>
+      </c>
+      <c r="G5" t="n">
         <v>19.28258915007475</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1" s="6">
-      <c r="A6" s="14" t="n"/>
+      <c r="A6" s="16" t="n"/>
       <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>20.09614295262798</v>
+      </c>
+      <c r="D6" t="n">
         <v>24.57886448281363</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>25.71964303322285</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>18.88761262495144</v>
+      </c>
+      <c r="G6" t="n">
         <v>19.06560490215001</v>
       </c>
     </row>
@@ -720,64 +776,88 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="13" t="n">
+        <v>0.5207279125965014</v>
+      </c>
+      <c r="D8" s="13" t="n">
         <v>0.6075442736222051</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" s="13" t="n">
         <v>0.7828164420241289</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" s="13" t="n">
+        <v>0.4806374191604903</v>
+      </c>
+      <c r="G8" s="13" t="n">
         <v>0.5437072685746848</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" s="6">
-      <c r="A9" s="13" t="n"/>
+      <c r="A9" s="14" t="n"/>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="15" t="n">
+        <v>0.593940833185831</v>
+      </c>
+      <c r="D9" s="15" t="n">
         <v>0.6681027314701836</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" s="15" t="n">
         <v>0.8403135876897583</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" s="15" t="n">
+        <v>0.5508381181938732</v>
+      </c>
+      <c r="G9" s="15" t="n">
         <v>0.5947867128619063</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" s="6">
-      <c r="A10" s="13" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.5807633801972012</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.6567860866040037</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.8332756753608379</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.5380352731172979</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.5793715295755107</v>
       </c>
     </row>
     <row r="11" ht="26.25" customHeight="1" s="6">
-      <c r="A11" s="14" t="n"/>
+      <c r="A11" s="16" t="n"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.5590462774189922</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.643750231712633</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.8210952913144416</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.5185573174882072</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.5571797105868965</v>
       </c>
     </row>
@@ -809,6 +889,11 @@
           <t>high_res / 15</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>high_res / 15</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="25.5" customHeight="1" s="6">
       <c r="A15" s="3" t="n"/>
@@ -817,22 +902,27 @@
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C15" s="15" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr">
         <is>
           <t>bird.png</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr">
+      <c r="D15" s="17" t="inlineStr">
         <is>
           <t>elelphant.png</t>
         </is>
       </c>
-      <c r="E15" s="15" t="inlineStr">
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>field.png</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
         <is>
           <t>water.png</t>
         </is>
       </c>
-      <c r="F15" s="15" t="inlineStr">
+      <c r="G15" s="17" t="inlineStr">
         <is>
           <t>yoshi.png</t>
         </is>
@@ -849,41 +939,47 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="13" t="n">
         <v>29.79702444375747</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="13" t="n">
         <v>20.33668350233375</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="13" t="n">
+        <v>19.76267950534896</v>
+      </c>
+      <c r="F16" s="13" t="n">
         <v>22.64643209512656</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" s="13" t="n">
         <v>19.51690542402421</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" s="6">
-      <c r="A17" s="13" t="n"/>
+      <c r="A17" s="14" t="n"/>
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="15" t="n">
         <v>31.87549340974631</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="15" t="n">
         <v>21.58626816235147</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="15" t="n">
+        <v>21.0649889105438</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <v>23.86744155311609</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>21.76058903298207</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" s="6">
-      <c r="A18" s="13" t="n"/>
+      <c r="A18" s="14" t="n"/>
       <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
@@ -896,14 +992,17 @@
         <v>21.20893333404922</v>
       </c>
       <c r="E18" t="n">
+        <v>20.84708854037841</v>
+      </c>
+      <c r="F18" t="n">
         <v>23.45145508091065</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" s="15" t="n">
         <v>21.93521364411928</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1" s="6">
-      <c r="A19" s="14" t="n"/>
+      <c r="A19" s="16" t="n"/>
       <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
@@ -916,9 +1015,12 @@
         <v>21.05384609543152</v>
       </c>
       <c r="E19" t="n">
+        <v>20.68320761235014</v>
+      </c>
+      <c r="F19" t="n">
         <v>23.21451170423998</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>21.85740011982916</v>
       </c>
     </row>
@@ -936,21 +1038,24 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="13" t="n">
         <v>0.9297294479068317</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="13" t="n">
         <v>0.468237542278865</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="13" t="n">
+        <v>0.6220931843304346</v>
+      </c>
+      <c r="F21" s="13" t="n">
         <v>0.5798681931620625</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.7834676151154504</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" s="6">
-      <c r="A22" s="13" t="n"/>
+      <c r="A22" s="14" t="n"/>
       <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
@@ -959,38 +1064,44 @@
       <c r="C22" t="n">
         <v>0.9559037338313137</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="15" t="n">
         <v>0.5192287376066872</v>
       </c>
       <c r="E22" t="n">
+        <v>0.6645829324232028</v>
+      </c>
+      <c r="F22" s="15" t="n">
         <v>0.6342269231159152</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" s="15" t="n">
         <v>0.8181389371542295</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" s="6">
-      <c r="A23" s="13" t="n"/>
+      <c r="A23" s="14" t="n"/>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="15" t="n">
         <v>0.9571114066253193</v>
       </c>
       <c r="D23" t="n">
         <v>0.507529922948876</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="15" t="n">
+        <v>0.6664123890754344</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.6266431131173542</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.8079883687904585</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="6">
-      <c r="A24" s="14" t="n"/>
+      <c r="A24" s="16" t="n"/>
       <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
@@ -1003,9 +1114,12 @@
         <v>0.4963430525203361</v>
       </c>
       <c r="E24" t="n">
+        <v>0.6590362666832175</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.6155594439617312</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" s="13" t="n">
         <v>0.7661920629065585</v>
       </c>
     </row>
@@ -1035,12 +1149,12 @@
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C28" s="16" t="inlineStr">
+      <c r="C28" s="18" t="inlineStr">
         <is>
           <t>bear.png</t>
         </is>
       </c>
-      <c r="D28" s="16" t="inlineStr">
+      <c r="D28" s="18" t="inlineStr">
         <is>
           <t>man.png</t>
         </is>
@@ -1057,15 +1171,15 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="13" t="n">
         <v>28.77891269925218</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="13" t="n">
         <v>30.20098261151398</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="6">
-      <c r="A30" s="13" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
@@ -1079,7 +1193,7 @@
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="6">
-      <c r="A31" s="13" t="n"/>
+      <c r="A31" s="14" t="n"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
@@ -1093,16 +1207,16 @@
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="6">
-      <c r="A32" s="14" t="n"/>
+      <c r="A32" s="16" t="n"/>
       <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="15" t="n">
         <v>34.72650061785436</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="15" t="n">
         <v>37.40432538930059</v>
       </c>
     </row>
@@ -1120,15 +1234,15 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="13" t="n">
         <v>0.7689866038485912</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="13" t="n">
         <v>0.8202449007268093</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="6">
-      <c r="A35" s="13" t="n"/>
+      <c r="A35" s="14" t="n"/>
       <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
@@ -1142,7 +1256,7 @@
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="6">
-      <c r="A36" s="13" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
@@ -1156,16 +1270,16 @@
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="6">
-      <c r="A37" s="14" t="n"/>
+      <c r="A37" s="16" t="n"/>
       <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="15" t="n">
         <v>0.9121123134507707</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="15" t="n">
         <v>0.945070769218908</v>
       </c>
     </row>
@@ -1223,47 +1337,47 @@
           <t>INTERPOLATION METHODS</t>
         </is>
       </c>
-      <c r="C41" s="17" t="inlineStr">
+      <c r="C41" s="19" t="inlineStr">
         <is>
           <t>axolotl.png</t>
         </is>
       </c>
-      <c r="D41" s="17" t="inlineStr">
+      <c r="D41" s="19" t="inlineStr">
         <is>
           <t>breakfast.png</t>
         </is>
       </c>
-      <c r="E41" s="17" t="inlineStr">
+      <c r="E41" s="19" t="inlineStr">
         <is>
           <t>cliff.png</t>
         </is>
       </c>
-      <c r="F41" s="17" t="inlineStr">
+      <c r="F41" s="19" t="inlineStr">
         <is>
           <t>gun.png</t>
         </is>
       </c>
-      <c r="G41" s="17" t="inlineStr">
+      <c r="G41" s="19" t="inlineStr">
         <is>
           <t>knight.png</t>
         </is>
       </c>
-      <c r="H41" s="17" t="inlineStr">
+      <c r="H41" s="19" t="inlineStr">
         <is>
           <t>pikachu.png</t>
         </is>
       </c>
-      <c r="I41" s="17" t="inlineStr">
+      <c r="I41" s="19" t="inlineStr">
         <is>
           <t>pizza.png</t>
         </is>
       </c>
-      <c r="J41" s="17" t="inlineStr">
+      <c r="J41" s="19" t="inlineStr">
         <is>
           <t>tree.png</t>
         </is>
       </c>
-      <c r="K41" s="17" t="inlineStr">
+      <c r="K41" s="19" t="inlineStr">
         <is>
           <t>wizzard.png</t>
         </is>
@@ -1280,71 +1394,71 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="13" t="n">
         <v>22.57125106555887</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="13" t="n">
         <v>24.92943639268828</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="13" t="n">
         <v>32.42433408242604</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="13" t="n">
         <v>24.4538847987094</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="13" t="n">
         <v>22.97591850088856</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="13" t="n">
         <v>13.04423328477438</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="13" t="n">
         <v>17.77389078245491</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" s="13" t="n">
         <v>18.97185344271182</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="13" t="n">
         <v>21.19825391313464</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" s="6">
-      <c r="A43" s="13" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="15" t="n">
         <v>24.48134435777748</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="15" t="n">
         <v>26.70519867613292</v>
       </c>
       <c r="E43" t="n">
         <v>32.54599121839482</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="15" t="n">
         <v>26.37345053767995</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="15" t="n">
         <v>24.80422631522724</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="15" t="n">
         <v>14.66275042398977</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="15" t="n">
         <v>19.38367542722527</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="15" t="n">
         <v>20.95634460844059</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="15" t="n">
         <v>22.97404183347038</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" s="6">
-      <c r="A44" s="13" t="n"/>
+      <c r="A44" s="14" t="n"/>
       <c r="B44" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
@@ -1379,7 +1493,7 @@
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" s="6">
-      <c r="A45" s="14" t="n"/>
+      <c r="A45" s="16" t="n"/>
       <c r="B45" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
@@ -1391,7 +1505,7 @@
       <c r="D45" t="n">
         <v>26.31560180921333</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="15" t="n">
         <v>33.23097112402589</v>
       </c>
       <c r="F45" t="n">
@@ -1424,36 +1538,36 @@
           <t>Nearest Neighbor</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="15" t="n">
         <v>0.8972020565176916</v>
       </c>
       <c r="D47" t="n">
         <v>0.8582853080027615</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="13" t="n">
         <v>0.9069548030564748</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="13" t="n">
         <v>0.8194310860942272</v>
       </c>
       <c r="G47" t="n">
         <v>0.8824249502406394</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" s="15" t="n">
         <v>0.6889045099324446</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="13" t="n">
         <v>0.6489755502869424</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="13" t="n">
         <v>0.6821725008323676</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="15" t="n">
         <v>0.8383062632613445</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" s="6">
-      <c r="A48" s="13" t="n"/>
+      <c r="A48" s="14" t="n"/>
       <c r="B48" s="5" t="inlineStr">
         <is>
           <t>Bilinear</t>
@@ -1462,25 +1576,25 @@
       <c r="C48" t="n">
         <v>0.8925856623537753</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="15" t="n">
         <v>0.8758109260385373</v>
       </c>
       <c r="E48" t="n">
         <v>0.9074028354713159</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="15" t="n">
         <v>0.844014377093217</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="15" t="n">
         <v>0.8945322493383068</v>
       </c>
       <c r="H48" t="n">
         <v>0.6770613859104637</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="15" t="n">
         <v>0.7026394593509345</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" s="15" t="n">
         <v>0.7290468172091509</v>
       </c>
       <c r="K48" t="n">
@@ -1488,7 +1602,7 @@
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" s="6">
-      <c r="A49" s="13" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="5" t="inlineStr">
         <is>
           <t>Bicubic</t>
@@ -1500,7 +1614,7 @@
       <c r="D49" t="n">
         <v>0.8626969097186971</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="15" t="n">
         <v>0.9100348812649616</v>
       </c>
       <c r="F49" t="n">
@@ -1523,16 +1637,16 @@
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" s="6">
-      <c r="A50" s="14" t="n"/>
+      <c r="A50" s="16" t="n"/>
       <c r="B50" s="5" t="inlineStr">
         <is>
           <t>Lanczos</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="13" t="n">
         <v>0.8522033478410863</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="13" t="n">
         <v>0.8461967591416126</v>
       </c>
       <c r="E50" t="n">
@@ -1541,10 +1655,10 @@
       <c r="F50" t="n">
         <v>0.8208673806897647</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="13" t="n">
         <v>0.8753236324658685</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" s="13" t="n">
         <v>0.6057841822753253</v>
       </c>
       <c r="I50" t="n">
@@ -1553,7 +1667,7 @@
       <c r="J50" t="n">
         <v>0.695487805303713</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="13" t="n">
         <v>0.797295842732928</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -1329,6 +1329,61 @@
           <t>pixel / 15</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>pixel / 15</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>pixel / 20</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="21" customHeight="1" s="6">
       <c r="A41" s="3" t="n"/>
@@ -1382,6 +1437,61 @@
           <t>wizzard.png</t>
         </is>
       </c>
+      <c r="L41" s="19" t="inlineStr">
+        <is>
+          <t>const.png</t>
+        </is>
+      </c>
+      <c r="M41" s="19" t="inlineStr">
+        <is>
+          <t>axolotl.png</t>
+        </is>
+      </c>
+      <c r="N41" s="19" t="inlineStr">
+        <is>
+          <t>breakfast.png</t>
+        </is>
+      </c>
+      <c r="O41" s="19" t="inlineStr">
+        <is>
+          <t>cliff.png</t>
+        </is>
+      </c>
+      <c r="P41" s="19" t="inlineStr">
+        <is>
+          <t>const.png</t>
+        </is>
+      </c>
+      <c r="Q41" s="19" t="inlineStr">
+        <is>
+          <t>gun.png</t>
+        </is>
+      </c>
+      <c r="R41" s="19" t="inlineStr">
+        <is>
+          <t>knight.png</t>
+        </is>
+      </c>
+      <c r="S41" s="19" t="inlineStr">
+        <is>
+          <t>pikachu.png</t>
+        </is>
+      </c>
+      <c r="T41" s="19" t="inlineStr">
+        <is>
+          <t>pizza.png</t>
+        </is>
+      </c>
+      <c r="U41" s="19" t="inlineStr">
+        <is>
+          <t>tree.png</t>
+        </is>
+      </c>
+      <c r="V41" s="19" t="inlineStr">
+        <is>
+          <t>wizzard.png</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="21" customHeight="1" s="6">
       <c r="A42" s="8" t="inlineStr">
@@ -1420,6 +1530,39 @@
       </c>
       <c r="K42" s="13" t="n">
         <v>21.19825391313464</v>
+      </c>
+      <c r="L42" s="13" t="n">
+        <v>19.5658747298857</v>
+      </c>
+      <c r="M42" s="13" t="n">
+        <v>23.71109502905531</v>
+      </c>
+      <c r="N42" s="13" t="n">
+        <v>25.86460379133166</v>
+      </c>
+      <c r="O42" s="15" t="n">
+        <v/>
+      </c>
+      <c r="P42" s="13" t="n">
+        <v>20.49562634974924</v>
+      </c>
+      <c r="Q42" s="13" t="n">
+        <v>25.72663369359125</v>
+      </c>
+      <c r="R42" s="13" t="n">
+        <v>24.43641954922784</v>
+      </c>
+      <c r="S42" s="13" t="n">
+        <v>14.83149800860855</v>
+      </c>
+      <c r="T42" s="13" t="n">
+        <v>18.90371338535905</v>
+      </c>
+      <c r="U42" s="13" t="n">
+        <v>20.40655239558746</v>
+      </c>
+      <c r="V42" s="13" t="n">
+        <v>22.28881312898383</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" s="6">
@@ -1456,6 +1599,39 @@
       <c r="K43" s="15" t="n">
         <v>22.97404183347038</v>
       </c>
+      <c r="L43" s="15" t="n">
+        <v>21.1928733423786</v>
+      </c>
+      <c r="M43" s="15" t="n">
+        <v>25.81860684067138</v>
+      </c>
+      <c r="N43" s="15" t="n">
+        <v>27.67303601631401</v>
+      </c>
+      <c r="O43" t="n">
+        <v>35.62554801303923</v>
+      </c>
+      <c r="P43" s="15" t="n">
+        <v>22.3358644526954</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>27.67420702753355</v>
+      </c>
+      <c r="R43" s="15" t="n">
+        <v>26.2945432229946</v>
+      </c>
+      <c r="S43" t="n">
+        <v>16.96934580766307</v>
+      </c>
+      <c r="T43" t="n">
+        <v>20.8326605129377</v>
+      </c>
+      <c r="U43" t="n">
+        <v>22.59240709492128</v>
+      </c>
+      <c r="V43" s="15" t="n">
+        <v>24.13960834050388</v>
+      </c>
     </row>
     <row r="44" ht="21" customHeight="1" s="6">
       <c r="A44" s="14" t="n"/>
@@ -1491,6 +1667,39 @@
       <c r="K44" t="n">
         <v>22.81324578294602</v>
       </c>
+      <c r="L44" t="n">
+        <v>21.01469074290171</v>
+      </c>
+      <c r="M44" t="n">
+        <v>25.68850001157729</v>
+      </c>
+      <c r="N44" t="n">
+        <v>27.43958508501114</v>
+      </c>
+      <c r="O44" t="n">
+        <v>35.43806403997451</v>
+      </c>
+      <c r="P44" t="n">
+        <v>22.17494028511</v>
+      </c>
+      <c r="Q44" s="15" t="n">
+        <v>27.70522087966716</v>
+      </c>
+      <c r="R44" t="n">
+        <v>26.05827712036121</v>
+      </c>
+      <c r="S44" s="15" t="n">
+        <v>17.1297471482422</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21.19390116865129</v>
+      </c>
+      <c r="U44" s="15" t="n">
+        <v>22.7191394574861</v>
+      </c>
+      <c r="V44" t="n">
+        <v>23.8986337484819</v>
+      </c>
     </row>
     <row r="45" ht="21" customHeight="1" s="6">
       <c r="A45" s="16" t="n"/>
@@ -1526,6 +1735,39 @@
       <c r="K45" t="n">
         <v>22.79300612125717</v>
       </c>
+      <c r="L45" t="n">
+        <v>20.82307325193237</v>
+      </c>
+      <c r="M45" t="n">
+        <v>25.57647523003999</v>
+      </c>
+      <c r="N45" t="n">
+        <v>27.32022769359125</v>
+      </c>
+      <c r="O45" s="13" t="n">
+        <v>35.13700150593359</v>
+      </c>
+      <c r="P45" t="n">
+        <v>21.96957303172311</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>27.63308982345646</v>
+      </c>
+      <c r="R45" t="n">
+        <v>25.79746534902217</v>
+      </c>
+      <c r="S45" t="n">
+        <v>16.94598563895453</v>
+      </c>
+      <c r="T45" s="15" t="n">
+        <v>21.29661848539093</v>
+      </c>
+      <c r="U45" t="n">
+        <v>22.66187580440864</v>
+      </c>
+      <c r="V45" t="n">
+        <v>23.64768977608035</v>
+      </c>
     </row>
     <row r="47" ht="21" customHeight="1" s="6">
       <c r="A47" s="8" t="inlineStr">
@@ -1564,6 +1806,39 @@
       </c>
       <c r="K47" s="15" t="n">
         <v>0.8383062632613445</v>
+      </c>
+      <c r="L47" s="13" t="n">
+        <v>0.6462648843958679</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9170771765121405</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8867740996083292</v>
+      </c>
+      <c r="O47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="13" t="n">
+        <v>0.7076762913029752</v>
+      </c>
+      <c r="Q47" s="13" t="n">
+        <v>0.852996198497571</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.9051160024216421</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.7802001170582672</v>
+      </c>
+      <c r="T47" s="13" t="n">
+        <v>0.6607017900880886</v>
+      </c>
+      <c r="U47" s="13" t="n">
+        <v>0.7572674833228689</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.866204693897461</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" s="6">
@@ -1600,6 +1875,39 @@
       <c r="K48" t="n">
         <v>0.8378658999669598</v>
       </c>
+      <c r="L48" s="15" t="n">
+        <v>0.6870958191285629</v>
+      </c>
+      <c r="M48" s="15" t="n">
+        <v>0.9175787462705527</v>
+      </c>
+      <c r="N48" s="15" t="n">
+        <v>0.9035558637981932</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.9496261157591288</v>
+      </c>
+      <c r="P48" s="15" t="n">
+        <v>0.7562726490121938</v>
+      </c>
+      <c r="Q48" s="15" t="n">
+        <v>0.8785634678847881</v>
+      </c>
+      <c r="R48" s="15" t="n">
+        <v>0.9147704258663479</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.7796983712372739</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.7569589184323728</v>
+      </c>
+      <c r="U48" s="15" t="n">
+        <v>0.8004508130609621</v>
+      </c>
+      <c r="V48" s="15" t="n">
+        <v>0.8695625308264082</v>
+      </c>
     </row>
     <row r="49" ht="21" customHeight="1" s="6">
       <c r="A49" s="14" t="n"/>
@@ -1635,6 +1943,39 @@
       <c r="K49" t="n">
         <v>0.8164198797168298</v>
       </c>
+      <c r="L49" t="n">
+        <v>0.6773956586522295</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8992173788212855</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8940930957944908</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.9418709476799464</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.750978945390489</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.8777039816290424</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.9038725941930473</v>
+      </c>
+      <c r="S49" s="15" t="n">
+        <v>0.7865218494877624</v>
+      </c>
+      <c r="T49" s="15" t="n">
+        <v>0.7677691396737455</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.7962863877107477</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.8520181557404887</v>
+      </c>
     </row>
     <row r="50" ht="21" customHeight="1" s="6">
       <c r="A50" s="16" t="n"/>
@@ -1669,6 +2010,39 @@
       </c>
       <c r="K50" s="13" t="n">
         <v>0.797295842732928</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6587513934184762</v>
+      </c>
+      <c r="M50" s="13" t="n">
+        <v>0.8749183746487854</v>
+      </c>
+      <c r="N50" s="13" t="n">
+        <v>0.8792179806195457</v>
+      </c>
+      <c r="O50" s="13" t="n">
+        <v>0.9325444335956451</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7297081824428311</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.8675130949764895</v>
+      </c>
+      <c r="R50" s="13" t="n">
+        <v>0.8879973653636518</v>
+      </c>
+      <c r="S50" s="13" t="n">
+        <v>0.7041083452018363</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.7553265387200793</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.7731237422243494</v>
+      </c>
+      <c r="V50" s="13" t="n">
+        <v>0.8317568101748526</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -609,27 +609,27 @@
       <c r="B1" s="7" t="n"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>damaged / 15</t>
+          <t>damaged / 17</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>damaged / 15</t>
+          <t>damaged / 17</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>damaged / 15</t>
+          <t>damaged / 17</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>damaged / 15</t>
+          <t>damaged / 17</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>damaged / 15</t>
+          <t>damaged / 17</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C3" s="13" t="n">
-        <v>18.72702272791578</v>
+        <v>19.37913147510102</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>23.92636339514132</v>
+        <v>24.3568234004089</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>24.06194911677096</v>
+        <v>25.11434863419576</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>17.68388058051656</v>
+        <v>18.57496871362074</v>
       </c>
       <c r="G3" s="13" t="n">
-        <v>18.32067128099025</v>
+        <v>18.53317329812007</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" s="6">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="C4" s="15" t="n">
-        <v>20.55932848375159</v>
+        <v>21.22063762747568</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>25.2305021408594</v>
+        <v>25.55329088249158</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>26.23843845769269</v>
+        <v>26.79009696471746</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>19.33241593667804</v>
+        <v>20.19740014671582</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>19.72805234229667</v>
+        <v>20.07449745164654</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" s="6">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.30509685497746</v>
+        <v>21.0002329737812</v>
       </c>
       <c r="D5" t="n">
-        <v>24.77992727174584</v>
+        <v>25.22355235324931</v>
       </c>
       <c r="E5" t="n">
-        <v>25.93342514760181</v>
+        <v>26.45868873677524</v>
       </c>
       <c r="F5" t="n">
-        <v>19.06163608668615</v>
+        <v>19.95930091745728</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28258915007475</v>
+        <v>19.65069804472928</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1" s="6">
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.09614295262798</v>
+        <v>20.7854171207687</v>
       </c>
       <c r="D6" t="n">
-        <v>24.57886448281363</v>
+        <v>25.0287113082852</v>
       </c>
       <c r="E6" t="n">
-        <v>25.71964303322285</v>
+        <v>26.22597518719619</v>
       </c>
       <c r="F6" t="n">
-        <v>18.88761262495144</v>
+        <v>19.74594419883826</v>
       </c>
       <c r="G6" t="n">
-        <v>19.06560490215001</v>
+        <v>19.42413520111223</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1" s="6">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.5207279125965014</v>
+        <v>0.5597556677615955</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6075442736222051</v>
+        <v>0.629341774914177</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.7828164420241289</v>
+        <v>0.8065035709952078</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4806374191604903</v>
+        <v>0.5107959007128743</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>0.5437072685746848</v>
+        <v>0.5622018414944941</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" s="6">
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.593940833185831</v>
+        <v>0.6243891693016407</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.6681027314701836</v>
+        <v>0.6783778951810463</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.8403135876897583</v>
+        <v>0.8559126641660181</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.5508381181938732</v>
+        <v>0.5783140694931267</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.5947867128619063</v>
+        <v>0.6133943426955265</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" s="6">
@@ -823,19 +823,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5807633801972012</v>
+        <v>0.6152080967527828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6567860866040037</v>
+        <v>0.6726332521594265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8332756753608379</v>
+        <v>0.848410893433501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5380352731172979</v>
+        <v>0.5672440890294371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5793715295755107</v>
+        <v>0.5990985343262262</v>
       </c>
     </row>
     <row r="11" ht="26.25" customHeight="1" s="6">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5590462774189922</v>
+        <v>0.5932955096205024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.643750231712633</v>
+        <v>0.6609526820690941</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8210952913144416</v>
+        <v>0.8351665664484669</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5185573174882072</v>
+        <v>0.5469264451189204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5571797105868965</v>
+        <v>0.5769617858229483</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1" s="6">
@@ -871,27 +871,27 @@
       <c r="B14" s="7" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>high_res / 15</t>
+          <t>high_res / 17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>high_res / 15</t>
+          <t>high_res / 17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>high_res / 15</t>
+          <t>high_res / 17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>high_res / 15</t>
+          <t>high_res / 17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>high_res / 15</t>
+          <t>high_res / 17</t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="C16" s="13" t="n">
-        <v>29.79702444375747</v>
+        <v>30.34102385290578</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>20.33668350233375</v>
+        <v>20.3467206782517</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>19.76267950534896</v>
+        <v>20.1836932949958</v>
       </c>
       <c r="F16" s="13" t="n">
-        <v>22.64643209512656</v>
+        <v>23.02522779361436</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>19.51690542402421</v>
+        <v>20.28070751298622</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1" s="6">
@@ -962,20 +962,20 @@
           <t>Bilinear</t>
         </is>
       </c>
-      <c r="C17" s="15" t="n">
-        <v>31.87549340974631</v>
+      <c r="C17" t="n">
+        <v>32.42219222785033</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>21.58626816235147</v>
+        <v>21.71904678322966</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>21.0649889105438</v>
+        <v>21.53251117524814</v>
       </c>
       <c r="F17" s="15" t="n">
-        <v>23.86744155311609</v>
+        <v>24.45374881282156</v>
       </c>
       <c r="G17" t="n">
-        <v>21.76058903298207</v>
+        <v>22.54557539325559</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1" s="6">
@@ -985,20 +985,20 @@
           <t>Bicubic</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>31.8340557684408</v>
+      <c r="C18" s="15" t="n">
+        <v>32.45332792611084</v>
       </c>
       <c r="D18" t="n">
-        <v>21.20893333404922</v>
+        <v>21.27949921169108</v>
       </c>
       <c r="E18" t="n">
-        <v>20.84708854037841</v>
+        <v>21.36855273259987</v>
       </c>
       <c r="F18" t="n">
-        <v>23.45145508091065</v>
+        <v>24.04762984772331</v>
       </c>
       <c r="G18" s="15" t="n">
-        <v>21.93521364411928</v>
+        <v>22.69976570619003</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1" s="6">
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31.65392985355637</v>
+        <v>32.2899718492928</v>
       </c>
       <c r="D19" t="n">
-        <v>21.05384609543152</v>
+        <v>21.09790067599205</v>
       </c>
       <c r="E19" t="n">
-        <v>20.68320761235014</v>
+        <v>21.21737518366417</v>
       </c>
       <c r="F19" t="n">
-        <v>23.21451170423998</v>
+        <v>23.7971993206145</v>
       </c>
       <c r="G19" t="n">
-        <v>21.85740011982916</v>
+        <v>22.60081994132499</v>
       </c>
     </row>
     <row r="20" ht="19.5" customHeight="1" s="6">
@@ -1039,19 +1039,19 @@
         </is>
       </c>
       <c r="C21" s="13" t="n">
-        <v>0.9297294479068317</v>
+        <v>0.9348876390155239</v>
       </c>
       <c r="D21" s="13" t="n">
-        <v>0.468237542278865</v>
+        <v>0.4810591760434597</v>
       </c>
       <c r="E21" s="13" t="n">
-        <v>0.6220931843304346</v>
+        <v>0.6466849645917253</v>
       </c>
       <c r="F21" s="13" t="n">
-        <v>0.5798681931620625</v>
+        <v>0.6103421997033575</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7834676151154504</v>
+        <v>0.8152577131203175</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1" s="6">
@@ -1062,19 +1062,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9559037338313137</v>
+        <v>0.9587530964846295</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>0.5192287376066872</v>
+        <v>0.5328328465521358</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6645829324232028</v>
+        <v>0.6897269719387443</v>
       </c>
       <c r="F22" s="15" t="n">
-        <v>0.6342269231159152</v>
+        <v>0.6673493643849988</v>
       </c>
       <c r="G22" s="15" t="n">
-        <v>0.8181389371542295</v>
+        <v>0.8428718743031447</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" s="6">
@@ -1085,19 +1085,19 @@
         </is>
       </c>
       <c r="C23" s="15" t="n">
-        <v>0.9571114066253193</v>
+        <v>0.9608179931174382</v>
       </c>
       <c r="D23" t="n">
-        <v>0.507529922948876</v>
+        <v>0.5217891370612516</v>
       </c>
       <c r="E23" s="15" t="n">
-        <v>0.6664123890754344</v>
+        <v>0.6938749315531144</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6266431131173542</v>
+        <v>0.6634399805325396</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8079883687904585</v>
+        <v>0.832108769303153</v>
       </c>
     </row>
     <row r="24" ht="19.5" customHeight="1" s="6">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9544814156069911</v>
+        <v>0.9597061644710195</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4963430525203361</v>
+        <v>0.5105523543808718</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6590362666832175</v>
+        <v>0.6867863331822749</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6155594439617312</v>
+        <v>0.6509807282217935</v>
       </c>
       <c r="G24" s="13" t="n">
-        <v>0.7661920629065585</v>
+        <v>0.7880330940134893</v>
       </c>
     </row>
     <row r="25" ht="19.5" customHeight="1" s="6">
@@ -1133,12 +1133,12 @@
       <c r="B27" s="7" t="n"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>low_res / 15</t>
+          <t>low_res / 17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>low_res / 15</t>
+          <t>low_res / 17</t>
         </is>
       </c>
     </row>
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="C29" s="13" t="n">
-        <v>28.77891269925218</v>
+        <v>29.68389894879931</v>
       </c>
       <c r="D29" s="13" t="n">
-        <v>30.20098261151398</v>
+        <v>30.91435907515181</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="6">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33.0239893538624</v>
+        <v>34.32374314571411</v>
       </c>
       <c r="D30" t="n">
-        <v>35.19581371289096</v>
+        <v>36.77191608005479</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="6">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34.57211696152407</v>
+        <v>36.35880598707097</v>
       </c>
       <c r="D31" t="n">
-        <v>37.2531103324491</v>
+        <v>39.26825125157386</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="6">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="C32" s="15" t="n">
-        <v>34.72650061785436</v>
+        <v>36.69777209170882</v>
       </c>
       <c r="D32" s="15" t="n">
-        <v>37.40432538930059</v>
+        <v>39.68963693507636</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="6">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="C34" s="13" t="n">
-        <v>0.7689866038485912</v>
+        <v>0.7999317442013139</v>
       </c>
       <c r="D34" s="13" t="n">
-        <v>0.8202449007268093</v>
+        <v>0.8456265087203101</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="6">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8967017525627163</v>
+        <v>0.9166466538635428</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9354588772766165</v>
+        <v>0.949649392745298</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="6">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9117489353051514</v>
+        <v>0.9341440167380949</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9450043820574425</v>
+        <v>0.9600074380779322</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="6">
@@ -1277,111 +1277,61 @@
         </is>
       </c>
       <c r="C37" s="15" t="n">
-        <v>0.9121123134507707</v>
+        <v>0.936976655000386</v>
       </c>
       <c r="D37" s="15" t="n">
-        <v>0.945070769218908</v>
+        <v>0.9626054974230428</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
+          <t>pixel / 17</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>pixel / 15</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>pixel / 20</t>
+          <t>pixel / 17</t>
         </is>
       </c>
     </row>
@@ -1409,85 +1359,35 @@
       </c>
       <c r="F41" s="19" t="inlineStr">
         <is>
+          <t>const.png</t>
+        </is>
+      </c>
+      <c r="G41" s="19" t="inlineStr">
+        <is>
           <t>gun.png</t>
         </is>
       </c>
-      <c r="G41" s="19" t="inlineStr">
+      <c r="H41" s="19" t="inlineStr">
         <is>
           <t>knight.png</t>
         </is>
       </c>
-      <c r="H41" s="19" t="inlineStr">
+      <c r="I41" s="19" t="inlineStr">
         <is>
           <t>pikachu.png</t>
         </is>
       </c>
-      <c r="I41" s="19" t="inlineStr">
+      <c r="J41" s="19" t="inlineStr">
         <is>
           <t>pizza.png</t>
         </is>
       </c>
-      <c r="J41" s="19" t="inlineStr">
+      <c r="K41" s="19" t="inlineStr">
         <is>
           <t>tree.png</t>
         </is>
       </c>
-      <c r="K41" s="19" t="inlineStr">
-        <is>
-          <t>wizzard.png</t>
-        </is>
-      </c>
       <c r="L41" s="19" t="inlineStr">
-        <is>
-          <t>const.png</t>
-        </is>
-      </c>
-      <c r="M41" s="19" t="inlineStr">
-        <is>
-          <t>axolotl.png</t>
-        </is>
-      </c>
-      <c r="N41" s="19" t="inlineStr">
-        <is>
-          <t>breakfast.png</t>
-        </is>
-      </c>
-      <c r="O41" s="19" t="inlineStr">
-        <is>
-          <t>cliff.png</t>
-        </is>
-      </c>
-      <c r="P41" s="19" t="inlineStr">
-        <is>
-          <t>const.png</t>
-        </is>
-      </c>
-      <c r="Q41" s="19" t="inlineStr">
-        <is>
-          <t>gun.png</t>
-        </is>
-      </c>
-      <c r="R41" s="19" t="inlineStr">
-        <is>
-          <t>knight.png</t>
-        </is>
-      </c>
-      <c r="S41" s="19" t="inlineStr">
-        <is>
-          <t>pikachu.png</t>
-        </is>
-      </c>
-      <c r="T41" s="19" t="inlineStr">
-        <is>
-          <t>pizza.png</t>
-        </is>
-      </c>
-      <c r="U41" s="19" t="inlineStr">
-        <is>
-          <t>tree.png</t>
-        </is>
-      </c>
-      <c r="V41" s="19" t="inlineStr">
         <is>
           <t>wizzard.png</t>
         </is>
@@ -1505,64 +1405,34 @@
         </is>
       </c>
       <c r="C42" s="13" t="n">
-        <v>22.57125106555887</v>
+        <v>22.93859885226125</v>
       </c>
       <c r="D42" s="13" t="n">
-        <v>24.92943639268828</v>
+        <v>25.7778931354388</v>
       </c>
       <c r="E42" s="13" t="n">
-        <v>32.42433408242604</v>
+        <v>30.45996295916947</v>
       </c>
       <c r="F42" s="13" t="n">
-        <v>24.4538847987094</v>
+        <v>19.95559103996148</v>
       </c>
       <c r="G42" s="13" t="n">
-        <v>22.97591850088856</v>
+        <v>25.18547296026373</v>
       </c>
       <c r="H42" s="13" t="n">
-        <v>13.04423328477438</v>
+        <v>24.07883577078144</v>
       </c>
       <c r="I42" s="13" t="n">
-        <v>17.77389078245491</v>
+        <v>13.68852783157492</v>
       </c>
       <c r="J42" s="13" t="n">
-        <v>18.97185344271182</v>
+        <v>18.04110776989511</v>
       </c>
       <c r="K42" s="13" t="n">
-        <v>21.19825391313464</v>
+        <v>19.528163013976</v>
       </c>
       <c r="L42" s="13" t="n">
-        <v>19.5658747298857</v>
-      </c>
-      <c r="M42" s="13" t="n">
-        <v>23.71109502905531</v>
-      </c>
-      <c r="N42" s="13" t="n">
-        <v>25.86460379133166</v>
-      </c>
-      <c r="O42" s="15" t="n">
-        <v/>
-      </c>
-      <c r="P42" s="13" t="n">
-        <v>20.49562634974924</v>
-      </c>
-      <c r="Q42" s="13" t="n">
-        <v>25.72663369359125</v>
-      </c>
-      <c r="R42" s="13" t="n">
-        <v>24.43641954922784</v>
-      </c>
-      <c r="S42" s="13" t="n">
-        <v>14.83149800860855</v>
-      </c>
-      <c r="T42" s="13" t="n">
-        <v>18.90371338535905</v>
-      </c>
-      <c r="U42" s="13" t="n">
-        <v>20.40655239558746</v>
-      </c>
-      <c r="V42" s="13" t="n">
-        <v>22.28881312898383</v>
+        <v>21.77913321580097</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" s="6">
@@ -1573,64 +1443,34 @@
         </is>
       </c>
       <c r="C43" s="15" t="n">
-        <v>24.48134435777748</v>
+        <v>25.0699151186837</v>
       </c>
       <c r="D43" s="15" t="n">
-        <v>26.70519867613292</v>
-      </c>
-      <c r="E43" t="n">
-        <v>32.54599121839482</v>
+        <v>27.72483740445141</v>
+      </c>
+      <c r="E43" s="15" t="n">
+        <v>32.37457125880058</v>
       </c>
       <c r="F43" s="15" t="n">
-        <v>26.37345053767995</v>
+        <v>21.89222689115954</v>
       </c>
       <c r="G43" s="15" t="n">
-        <v>24.80422631522724</v>
+        <v>26.99002758968845</v>
       </c>
       <c r="H43" s="15" t="n">
-        <v>14.66275042398977</v>
+        <v>25.93291123188287</v>
       </c>
       <c r="I43" s="15" t="n">
-        <v>19.38367542722527</v>
-      </c>
-      <c r="J43" s="15" t="n">
-        <v>20.95634460844059</v>
-      </c>
-      <c r="K43" s="15" t="n">
-        <v>22.97404183347038</v>
+        <v>15.43657729585718</v>
+      </c>
+      <c r="J43" t="n">
+        <v>20.02892799482887</v>
+      </c>
+      <c r="K43" t="n">
+        <v>21.73420542806975</v>
       </c>
       <c r="L43" s="15" t="n">
-        <v>21.1928733423786</v>
-      </c>
-      <c r="M43" s="15" t="n">
-        <v>25.81860684067138</v>
-      </c>
-      <c r="N43" s="15" t="n">
-        <v>27.67303601631401</v>
-      </c>
-      <c r="O43" t="n">
-        <v>35.62554801303923</v>
-      </c>
-      <c r="P43" s="15" t="n">
-        <v>22.3358644526954</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>27.67420702753355</v>
-      </c>
-      <c r="R43" s="15" t="n">
-        <v>26.2945432229946</v>
-      </c>
-      <c r="S43" t="n">
-        <v>16.96934580766307</v>
-      </c>
-      <c r="T43" t="n">
-        <v>20.8326605129377</v>
-      </c>
-      <c r="U43" t="n">
-        <v>22.59240709492128</v>
-      </c>
-      <c r="V43" s="15" t="n">
-        <v>24.13960834050388</v>
+        <v>23.72323897301643</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" s="6">
@@ -1641,64 +1481,34 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.35886435221493</v>
+        <v>24.96545240926296</v>
       </c>
       <c r="D44" t="n">
-        <v>26.46840355509633</v>
+        <v>27.7059169668489</v>
       </c>
       <c r="E44" t="n">
-        <v>33.18578990416478</v>
+        <v>32.24591194863513</v>
       </c>
       <c r="F44" t="n">
-        <v>26.19783391037748</v>
+        <v>21.74772923586207</v>
       </c>
       <c r="G44" t="n">
-        <v>24.68067565826239</v>
+        <v>26.91939638415364</v>
       </c>
       <c r="H44" t="n">
-        <v>14.50155845349233</v>
+        <v>25.91570611445471</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33231944150946</v>
-      </c>
-      <c r="J44" t="n">
-        <v>20.93753339155314</v>
-      </c>
-      <c r="K44" t="n">
-        <v>22.81324578294602</v>
+        <v>15.3957414434498</v>
+      </c>
+      <c r="J44" s="15" t="n">
+        <v>20.13214975281526</v>
+      </c>
+      <c r="K44" s="15" t="n">
+        <v>21.79331359480311</v>
       </c>
       <c r="L44" t="n">
-        <v>21.01469074290171</v>
-      </c>
-      <c r="M44" t="n">
-        <v>25.68850001157729</v>
-      </c>
-      <c r="N44" t="n">
-        <v>27.43958508501114</v>
-      </c>
-      <c r="O44" t="n">
-        <v>35.43806403997451</v>
-      </c>
-      <c r="P44" t="n">
-        <v>22.17494028511</v>
-      </c>
-      <c r="Q44" s="15" t="n">
-        <v>27.70522087966716</v>
-      </c>
-      <c r="R44" t="n">
-        <v>26.05827712036121</v>
-      </c>
-      <c r="S44" s="15" t="n">
-        <v>17.1297471482422</v>
-      </c>
-      <c r="T44" t="n">
-        <v>21.19390116865129</v>
-      </c>
-      <c r="U44" s="15" t="n">
-        <v>22.7191394574861</v>
-      </c>
-      <c r="V44" t="n">
-        <v>23.8986337484819</v>
+        <v>23.65905854940189</v>
       </c>
     </row>
     <row r="45" ht="21" customHeight="1" s="6">
@@ -1709,64 +1519,34 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.20227919536475</v>
+        <v>24.89684756780245</v>
       </c>
       <c r="D45" t="n">
-        <v>26.31560180921333</v>
-      </c>
-      <c r="E45" s="15" t="n">
-        <v>33.23097112402589</v>
+        <v>27.62452545297545</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32.15045812529682</v>
       </c>
       <c r="F45" t="n">
-        <v>25.97642628546719</v>
+        <v>21.53625520109301</v>
       </c>
       <c r="G45" t="n">
-        <v>24.64149867387435</v>
+        <v>26.7248066491503</v>
       </c>
       <c r="H45" t="n">
-        <v>14.30974623074501</v>
+        <v>25.80464032612804</v>
       </c>
       <c r="I45" t="n">
-        <v>19.19033705756922</v>
+        <v>15.25052273450527</v>
       </c>
       <c r="J45" t="n">
-        <v>20.7790538678784</v>
+        <v>20.01828833895875</v>
       </c>
       <c r="K45" t="n">
-        <v>22.79300612125717</v>
+        <v>21.65465233184786</v>
       </c>
       <c r="L45" t="n">
-        <v>20.82307325193237</v>
-      </c>
-      <c r="M45" t="n">
-        <v>25.57647523003999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>27.32022769359125</v>
-      </c>
-      <c r="O45" s="13" t="n">
-        <v>35.13700150593359</v>
-      </c>
-      <c r="P45" t="n">
-        <v>21.96957303172311</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>27.63308982345646</v>
-      </c>
-      <c r="R45" t="n">
-        <v>25.79746534902217</v>
-      </c>
-      <c r="S45" t="n">
-        <v>16.94598563895453</v>
-      </c>
-      <c r="T45" s="15" t="n">
-        <v>21.29661848539093</v>
-      </c>
-      <c r="U45" t="n">
-        <v>22.66187580440864</v>
-      </c>
-      <c r="V45" t="n">
-        <v>23.64768977608035</v>
+        <v>23.54019684842939</v>
       </c>
     </row>
     <row r="47" ht="21" customHeight="1" s="6">
@@ -1781,64 +1561,34 @@
         </is>
       </c>
       <c r="C47" s="15" t="n">
-        <v>0.8972020565176916</v>
+        <v>0.9066371161891849</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8582853080027615</v>
+        <v>0.878357344593617</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>0.9069548030564748</v>
+        <v>0.8956534121153714</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>0.8194310860942272</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.8824249502406394</v>
-      </c>
-      <c r="H47" s="15" t="n">
-        <v>0.6889045099324446</v>
-      </c>
-      <c r="I47" s="13" t="n">
-        <v>0.6489755502869424</v>
+        <v>0.665787331712009</v>
+      </c>
+      <c r="G47" s="13" t="n">
+        <v>0.8361511634020545</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8923630698986672</v>
+      </c>
+      <c r="I47" s="15" t="n">
+        <v>0.7276349922975321</v>
       </c>
       <c r="J47" s="13" t="n">
-        <v>0.6821725008323676</v>
-      </c>
-      <c r="K47" s="15" t="n">
-        <v>0.8383062632613445</v>
-      </c>
-      <c r="L47" s="13" t="n">
-        <v>0.6462648843958679</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9170771765121405</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.8867740996083292</v>
-      </c>
-      <c r="O47" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="13" t="n">
-        <v>0.7076762913029752</v>
-      </c>
-      <c r="Q47" s="13" t="n">
-        <v>0.852996198497571</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.9051160024216421</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.7802001170582672</v>
-      </c>
-      <c r="T47" s="13" t="n">
-        <v>0.6607017900880886</v>
-      </c>
-      <c r="U47" s="13" t="n">
-        <v>0.7572674833228689</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.866204693897461</v>
+        <v>0.6661681842683401</v>
+      </c>
+      <c r="K47" s="13" t="n">
+        <v>0.6915768845916936</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.8376233059988155</v>
       </c>
     </row>
     <row r="48" ht="21" customHeight="1" s="6">
@@ -1849,64 +1599,34 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8925856623537753</v>
+        <v>0.9037226301737694</v>
       </c>
       <c r="D48" s="15" t="n">
-        <v>0.8758109260385373</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.9074028354713159</v>
+        <v>0.8927920504174643</v>
+      </c>
+      <c r="E48" s="15" t="n">
+        <v>0.9192613377618585</v>
       </c>
       <c r="F48" s="15" t="n">
-        <v>0.844014377093217</v>
+        <v>0.7154941939864997</v>
       </c>
       <c r="G48" s="15" t="n">
-        <v>0.8945322493383068</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.6770613859104637</v>
-      </c>
-      <c r="I48" s="15" t="n">
-        <v>0.7026394593509345</v>
+        <v>0.8597026664169271</v>
+      </c>
+      <c r="H48" s="15" t="n">
+        <v>0.9024700554131259</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7081909118913221</v>
       </c>
       <c r="J48" s="15" t="n">
-        <v>0.7290468172091509</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.8378658999669598</v>
+        <v>0.7321720314742861</v>
+      </c>
+      <c r="K48" s="15" t="n">
+        <v>0.7600522553993546</v>
       </c>
       <c r="L48" s="15" t="n">
-        <v>0.6870958191285629</v>
-      </c>
-      <c r="M48" s="15" t="n">
-        <v>0.9175787462705527</v>
-      </c>
-      <c r="N48" s="15" t="n">
-        <v>0.9035558637981932</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.9496261157591288</v>
-      </c>
-      <c r="P48" s="15" t="n">
-        <v>0.7562726490121938</v>
-      </c>
-      <c r="Q48" s="15" t="n">
-        <v>0.8785634678847881</v>
-      </c>
-      <c r="R48" s="15" t="n">
-        <v>0.9147704258663479</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.7796983712372739</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0.7569589184323728</v>
-      </c>
-      <c r="U48" s="15" t="n">
-        <v>0.8004508130609621</v>
-      </c>
-      <c r="V48" s="15" t="n">
-        <v>0.8695625308264082</v>
+        <v>0.8455685049014482</v>
       </c>
     </row>
     <row r="49" ht="21" customHeight="1" s="6">
@@ -1917,64 +1637,34 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8689677322291401</v>
+        <v>0.883079848215314</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8626969097186971</v>
-      </c>
-      <c r="E49" s="15" t="n">
-        <v>0.9100348812649616</v>
+        <v>0.885193301126518</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9131267360904749</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8349228626116442</v>
+        <v>0.7106477628855202</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8847217611692392</v>
+        <v>0.8544558587279657</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6813506350681325</v>
+        <v>0.8947697719815918</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6973599629106072</v>
+        <v>0.712819709991281</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7171844826168665</v>
+        <v>0.7304463318573141</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8164198797168298</v>
+        <v>0.7522525447257857</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6773956586522295</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8992173788212855</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.8940930957944908</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.9418709476799464</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.750978945390489</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.8777039816290424</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.9038725941930473</v>
-      </c>
-      <c r="S49" s="15" t="n">
-        <v>0.7865218494877624</v>
-      </c>
-      <c r="T49" s="15" t="n">
-        <v>0.7677691396737455</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0.7962863877107477</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.8520181557404887</v>
+        <v>0.8320736312878201</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" s="6">
@@ -1985,64 +1675,34 @@
         </is>
       </c>
       <c r="C50" s="13" t="n">
-        <v>0.8522033478410863</v>
+        <v>0.865443725521394</v>
       </c>
       <c r="D50" s="13" t="n">
-        <v>0.8461967591416126</v>
+        <v>0.8707825123759255</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9085968789959953</v>
+        <v>0.9071176367472013</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8208673806897647</v>
-      </c>
-      <c r="G50" s="13" t="n">
-        <v>0.8753236324658685</v>
+        <v>0.6926793830293052</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8405600698496626</v>
       </c>
       <c r="H50" s="13" t="n">
-        <v>0.6057841822753253</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.668390136179554</v>
+        <v>0.8862907768028879</v>
+      </c>
+      <c r="I50" s="13" t="n">
+        <v>0.6401009697099213</v>
       </c>
       <c r="J50" t="n">
-        <v>0.695487805303713</v>
-      </c>
-      <c r="K50" s="13" t="n">
-        <v>0.797295842732928</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.6587513934184762</v>
-      </c>
-      <c r="M50" s="13" t="n">
-        <v>0.8749183746487854</v>
-      </c>
-      <c r="N50" s="13" t="n">
-        <v>0.8792179806195457</v>
-      </c>
-      <c r="O50" s="13" t="n">
-        <v>0.9325444335956451</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.7297081824428311</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.8675130949764895</v>
-      </c>
-      <c r="R50" s="13" t="n">
-        <v>0.8879973653636518</v>
-      </c>
-      <c r="S50" s="13" t="n">
-        <v>0.7041083452018363</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.7553265387200793</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.7731237422243494</v>
-      </c>
-      <c r="V50" s="13" t="n">
-        <v>0.8317568101748526</v>
+        <v>0.6975575300448842</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.7316158691748159</v>
+      </c>
+      <c r="L50" s="13" t="n">
+        <v>0.8151103254669607</v>
       </c>
     </row>
   </sheetData>
